--- a/biochpatho/Excel/Secret.xlsx
+++ b/biochpatho/Excel/Secret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\biochpatho\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D667222-36A4-4200-95A6-CB0D2A714489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D449786-0996-4A5B-AE2C-E4E18C240B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="306">
   <si>
     <t>Numero</t>
   </si>
@@ -107,9 +107,6 @@
     <t xml:space="preserve"> Les acides gras monoinsaturés activent la translocation de GLUT4</t>
   </si>
   <si>
-    <t>Rôle protecteur contre l’hyperglycémie</t>
-  </si>
-  <si>
     <t>La cholécystokinine est une hormone pancréatique anorexigène</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>Les statines diminuent l’expression des récepteurs aux LDL en activant PCSK9.</t>
   </si>
   <si>
-    <t>inhibiteurs de l’HMG-CoA réductase, qui diminue le cholestérol intracellulaire donc active SREBP et augmente les LDL récepteur</t>
-  </si>
-  <si>
     <t>L'insuline est une hormone anorexigène.</t>
   </si>
   <si>
@@ -350,9 +344,6 @@
     <t xml:space="preserve"> Le QR des diabétiques non traités par de l'insuline est &gt; 0,83.</t>
   </si>
   <si>
-    <t>diminué parce que le glucose n’est pas métabolisé (QR glucose = 1)</t>
-  </si>
-  <si>
     <t>La sensibilité à l'insuline varie d'une personne à l'autre mais est une constante physiologiques chez une même personne</t>
   </si>
   <si>
@@ -449,9 +440,6 @@
     <t>Les acides ω3 diminuent le taux de VLDL en dégradant ApoB100.</t>
   </si>
   <si>
-    <t>ils diminuent la formation hépatique</t>
-  </si>
-  <si>
     <t>Le QR (quotient respiratoire) d’un diabétique à qui on donne un régime mixte sera supérieur à une personne normale à qui on donne le même régime.</t>
   </si>
   <si>
@@ -945,6 +933,27 @@
   </si>
   <si>
     <t>Une résistance à la leptine peut causer une obésité précoce et sévère liée à de l’hyperphagie</t>
+  </si>
+  <si>
+    <t>Rôle protecteur contre l’hyperglycémie             /!\ Absolument pas sur de celle là psk j'ai rien vu dans le cours qui parle d'acides gras monoinsaturés et les acides gras peuvent inhiber la translocation de GLUT4 en sabotant le recepteur à l'insuline</t>
+  </si>
+  <si>
+    <t>inhibiteurs de l’HMG-CoA réductase, qui diminue le cholestérol intracellulaire donc active SREBP et augmente les LDL récepteur (ça va augmenter leur expression mais en même temps ca va augmenter leur dégradation ??)</t>
+  </si>
+  <si>
+    <t>diminué parce que le glucose n’est pas métabolisé (QR glucose = 1) (vu qu'en moyenne il est à 0,83, si on peut pas metaboliser le sucre, on va devoir metaboliser plus de lipide à la place donc le QR va diminuer)</t>
+  </si>
+  <si>
+    <t>dans le pdf ils disent que c'est faux mais c vrai ?</t>
+  </si>
+  <si>
+    <t>ils diminuent la formation hépatique (askip c faux d'apres chatgpt et jpige rien au cours donc ff)</t>
+  </si>
+  <si>
+    <t>askip c faux d'apres chatgpt mais vrai d'apres le pdf d'annale, honnetement ahahaha pile ou face à l'ancienne hein</t>
+  </si>
+  <si>
+    <t>deso flm de trouver des images pour le reste des questions</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B145" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1558,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -1578,13 +1587,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -1598,13 +1607,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -1618,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1638,13 +1647,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -1658,13 +1667,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -1678,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1698,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -1718,13 +1727,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -1738,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1758,13 +1767,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1778,13 +1787,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1798,13 +1807,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -1818,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -1838,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>50</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -1858,13 +1867,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>52</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -1878,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>54</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -1898,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -1918,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>58</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -1938,13 +1947,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -1958,13 +1967,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>62</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1978,13 +1987,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1998,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2018,13 +2027,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>67</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -2038,13 +2047,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>69</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -2058,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2078,13 +2087,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>72</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -2098,13 +2107,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>74</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2118,13 +2127,13 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>76</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -2138,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2158,13 +2167,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
         <v>79</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>80</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2178,13 +2187,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
         <v>81</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>82</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -2198,13 +2207,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>83</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2218,13 +2227,13 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>85</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -2238,13 +2247,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>87</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -2258,13 +2267,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>89</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>90</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -2278,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2298,13 +2307,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>92</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>93</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2318,13 +2327,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>94</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>95</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -2338,13 +2347,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -2358,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2378,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -2398,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2418,13 +2427,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -2438,13 +2447,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -2458,13 +2467,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -2478,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2498,13 +2507,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -2518,13 +2527,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -2538,13 +2547,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -2558,13 +2567,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2578,13 +2587,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -2598,13 +2607,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -2618,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2638,13 +2647,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -2658,13 +2667,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -2678,13 +2687,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -2698,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -2718,13 +2727,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -2738,13 +2747,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -2758,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -2778,13 +2787,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -2798,13 +2807,13 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -2818,13 +2827,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -2838,13 +2847,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -2858,13 +2867,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -2878,13 +2887,13 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -2898,13 +2907,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -2918,13 +2927,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -2938,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -2958,13 +2967,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2978,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2998,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -3018,13 +3027,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3038,7 +3047,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -3058,13 +3067,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -3078,13 +3087,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -3098,13 +3107,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -3118,13 +3127,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -3138,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -3158,13 +3167,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -3178,13 +3187,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -3198,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -3218,13 +3227,13 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -3238,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -3258,13 +3267,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -3278,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -3298,13 +3307,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -3318,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3338,13 +3347,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3358,13 +3367,13 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -3378,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -3398,13 +3407,13 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -3418,13 +3427,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -3438,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3458,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -3478,13 +3487,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -3498,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3518,13 +3527,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -3538,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3558,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3578,13 +3587,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -3598,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3618,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -3638,13 +3647,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -3658,13 +3667,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -3678,13 +3687,13 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -3698,13 +3707,13 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -3718,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3738,13 +3747,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -3758,13 +3767,13 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -3778,13 +3787,13 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -3798,13 +3807,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -3818,13 +3827,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -3838,13 +3847,13 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -3858,13 +3867,13 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -3878,13 +3887,13 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -3898,13 +3907,13 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -3918,13 +3927,13 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -3938,13 +3947,13 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -3958,7 +3967,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -3978,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -3998,13 +4007,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -4018,13 +4027,13 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4038,13 +4047,13 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -4058,13 +4067,13 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -4078,7 +4087,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4098,13 +4107,13 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -4118,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -4138,13 +4147,13 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -4158,13 +4167,13 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -4178,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -4198,7 +4207,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4218,13 +4227,13 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4238,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -4258,13 +4267,13 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4278,13 +4287,13 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -4298,13 +4307,13 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -4318,7 +4327,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -4338,13 +4347,13 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -4358,13 +4367,13 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -4378,13 +4387,13 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -4398,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -4418,7 +4427,7 @@
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -4438,7 +4447,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4458,13 +4467,13 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -4478,13 +4487,13 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -4498,13 +4507,13 @@
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -4518,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -4538,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
@@ -4558,13 +4567,13 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -4578,13 +4587,13 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -4598,13 +4607,13 @@
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -4618,7 +4627,7 @@
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -4638,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -4658,7 +4667,7 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -4678,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -4698,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -4718,13 +4727,13 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -4738,13 +4747,13 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -4758,13 +4767,13 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -4778,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -4798,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -4818,13 +4827,13 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -4838,13 +4847,13 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -4858,7 +4867,7 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
